--- a/data/trans_dic/P16A01-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A01-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,49; 9,18</t>
+          <t>4,37; 9,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,53; 15,28</t>
+          <t>8,24; 15,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,96; 11,46</t>
+          <t>5,93; 12,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,02; 8,98</t>
+          <t>3,95; 8,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,84; 12,17</t>
+          <t>5,54; 12,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,6; 12,12</t>
+          <t>5,58; 12,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,28; 9,75</t>
+          <t>4,37; 9,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,59; 9,48</t>
+          <t>5,58; 9,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,44; 9,23</t>
+          <t>5,43; 9,27</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,63; 12,69</t>
+          <t>8,06; 12,78</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,77; 9,88</t>
+          <t>5,95; 10,07</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,25; 8,39</t>
+          <t>5,17; 8,42</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,94; 9,33</t>
+          <t>4,54; 10,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,76; 10,48</t>
+          <t>4,89; 10,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,88; 10,52</t>
+          <t>4,92; 10,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,24; 11,55</t>
+          <t>5,86; 11,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,18; 11,01</t>
+          <t>5,15; 10,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,51; 13,31</t>
+          <t>6,25; 13,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,1; 12,31</t>
+          <t>6,02; 12,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,06; 9,62</t>
+          <t>4,97; 9,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,34; 9,38</t>
+          <t>5,35; 9,06</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,41; 10,68</t>
+          <t>6,27; 10,62</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,48; 10,76</t>
+          <t>6,37; 10,65</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,94; 9,64</t>
+          <t>6,14; 9,65</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,71; 10,29</t>
+          <t>5,85; 10,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,77; 11,51</t>
+          <t>6,56; 11,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,46; 11,27</t>
+          <t>6,29; 11,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,09; 10,17</t>
+          <t>2,13; 10,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,09; 16,55</t>
+          <t>6,01; 15,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,66; 11,79</t>
+          <t>4,89; 11,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,32; 15,21</t>
+          <t>5,62; 15,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,63; 14,83</t>
+          <t>7,32; 14,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,53; 11,07</t>
+          <t>6,4; 10,93</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,53; 10,66</t>
+          <t>6,53; 10,55</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,75; 11,16</t>
+          <t>6,87; 11,09</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,61; 10,68</t>
+          <t>2,98; 10,55</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,77; 8,5</t>
+          <t>5,68; 8,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,21; 11,99</t>
+          <t>8,05; 11,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,37; 9,66</t>
+          <t>6,42; 9,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,55; 9,2</t>
+          <t>5,4; 9,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,29; 8,97</t>
+          <t>5,32; 9,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,2; 12,61</t>
+          <t>8,18; 12,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,91; 9,66</t>
+          <t>6,05; 9,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,54; 6,87</t>
+          <t>2,6; 6,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,88; 8,17</t>
+          <t>5,93; 8,23</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,66; 11,49</t>
+          <t>8,72; 11,75</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,58; 9,13</t>
+          <t>6,66; 9,23</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,17; 7,55</t>
+          <t>4,32; 7,54</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,84; 10,15</t>
+          <t>4,83; 10,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,81; 11,83</t>
+          <t>6,8; 11,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,12; 9,33</t>
+          <t>5,11; 9,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,21; 9,02</t>
+          <t>4,07; 8,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,76; 8,01</t>
+          <t>3,65; 7,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,4; 9,05</t>
+          <t>5,39; 9,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,24; 10,32</t>
+          <t>6,28; 10,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,27; 10,76</t>
+          <t>6,13; 10,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,87; 8,01</t>
+          <t>4,86; 8,11</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,61; 9,47</t>
+          <t>6,47; 9,66</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,23; 9,27</t>
+          <t>6,25; 9,17</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,06; 9,21</t>
+          <t>6,06; 9,26</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,47; 8,54</t>
+          <t>3,49; 8,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,77; 14,47</t>
+          <t>6,8; 14,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,87; 9,91</t>
+          <t>4,19; 9,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,52; 6,77</t>
+          <t>0,51; 5,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,99; 6,46</t>
+          <t>4,04; 6,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,26; 9,37</t>
+          <t>6,19; 9,6</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,27; 11,22</t>
+          <t>7,31; 11,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,31; 8,93</t>
+          <t>5,19; 8,85</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,17; 6,49</t>
+          <t>4,16; 6,31</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>6,79; 9,76</t>
+          <t>6,6; 9,63</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,09; 10,18</t>
+          <t>7,02; 10,17</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,37; 7,53</t>
+          <t>4,35; 7,29</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,03; 7,81</t>
+          <t>6,11; 7,89</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,39; 10,58</t>
+          <t>8,38; 10,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,81; 8,66</t>
+          <t>6,82; 8,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,99; 7,6</t>
+          <t>5,03; 7,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,62; 7,28</t>
+          <t>5,69; 7,41</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,43; 9,29</t>
+          <t>7,4; 9,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,42; 9,26</t>
+          <t>7,47; 9,34</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,67; 7,89</t>
+          <t>5,67; 7,96</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,03; 7,27</t>
+          <t>6,08; 7,3</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>8,13; 9,61</t>
+          <t>8,2; 9,59</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>7,35; 8,7</t>
+          <t>7,33; 8,66</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,7; 7,5</t>
+          <t>5,78; 7,5</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>30180</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>49681</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>36104</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>30136</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>26339</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>26363</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>23538</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>33239</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>56519</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>76044</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>59642</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>63375</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>20687; 43619</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>36006; 66750</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>25448; 52147</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>19931; 44838</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>16981; 36843</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>17558; 37990</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>15179; 34448</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>24978; 42505</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>42401; 72382</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>60562; 96047</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>46178; 78187</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>49242; 80237</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>24506</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>30025</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>28454</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>38751</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>28383</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>31416</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>33379</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>26235</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>52889</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>61442</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>61832</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>64986</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>16671; 38036</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>20379; 44550</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>18566; 40996</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>26513; 52146</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>19133; 39733</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>20958; 43856</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>22429; 46206</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>18986; 35523</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>39553; 66949</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>47151; 79900</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>47731; 79792</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>51177; 80475</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>42275</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>54752</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>44637</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>40394</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>17387</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>19579</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>15920</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>17627</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>59662</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>74330</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>60557</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>58021</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>31750; 57144</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>41118; 72217</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>32848; 58965</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>14244; 69553</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>10085; 26450</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>12617; 29221</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>9341; 25779</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>12212; 24974</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>45472; 77626</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>57750; 93312</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>47288; 76326</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>24922; 88120</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>86358</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>113941</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>90530</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>73570</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>49831</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>78614</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>63718</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>49266</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>136188</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>192554</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>154248</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>122837</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>70294; 104741</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>93146; 137578</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>73822; 110198</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>55921; 96602</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>38016; 64547</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>62743; 98815</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>49984; 78913</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>25426; 66991</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>115885; 160697</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>167777; 226049</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>131605; 182430</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>86973; 151700</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>25133</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>45984</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>42657</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>29974</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>31989</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>54025</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>60314</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>71232</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>57122</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>100009</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>102971</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>101206</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>16896; 35532</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>34739; 59086</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>31689; 57126</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>19315; 41556</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>20767; 45233</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>40819; 69535</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>46346; 76848</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>51420; 87016</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>44614; 74455</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>81988; 122472</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>84985; 124643</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>79526; 121531</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>17153</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>26710</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>18751</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>4685</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>63156</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>84962</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>98410</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>51842</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>80309</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>111672</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>117161</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>56526</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>10405; 26571</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>18072; 38197</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>12040; 27776</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1231; 14221</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>50469; 79743</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>68436; 106055</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>79122; 120776</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>39448; 67276</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>64323; 97625</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>90483; 132021</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>96094; 139302</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>43516; 72986</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>572</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>631</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>225605</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>321093</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>261133</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>217510</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>217084</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>294958</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>295278</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>249441</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>442689</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>616051</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>556411</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>466951</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>199591; 257786</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>286188; 355713</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>230994; 297200</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>169644; 255994</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>192203; 250444</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>261614; 328685</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>263670; 329986</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>202703; 284359</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>403867; 485389</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>570034; 666341</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>506717; 599253</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>401452; 521347</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P16A01-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A01-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
